--- a/evaluation/results/hybrid/autoencoder/LOF/split_4/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/LOF/split_4/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.900355871886121</v>
+        <v>0.2473309608540925</v>
       </c>
       <c r="C2">
-        <v>0.0625</v>
+        <v>0.06208425720620843</v>
       </c>
       <c r="D2">
-        <v>0.07142857142857142</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.06666666666666667</v>
+        <v>0.1169102296450939</v>
       </c>
       <c r="F2">
-        <v>0.06944444444444445</v>
+        <v>0.2486678507992895</v>
       </c>
       <c r="G2">
-        <v>0.07103825136612021</v>
+        <v>0.63249348392702</v>
       </c>
       <c r="H2">
-        <v>0.5076243980738363</v>
+        <v>0.5951043338683788</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>423</v>
       </c>
       <c r="K2">
-        <v>504</v>
+        <v>111</v>
       </c>
       <c r="L2">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9509433962264151</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9438202247191011</v>
+        <v>0.2078651685393259</v>
       </c>
       <c r="D2">
-        <v>0.9473684210526315</v>
+        <v>0.3441860465116279</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.0625</v>
+        <v>0.06208425720620843</v>
       </c>
       <c r="C3">
-        <v>0.07142857142857142</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.06666666666666667</v>
+        <v>0.1169102296450939</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.900355871886121</v>
+        <v>0.2473309608540925</v>
       </c>
       <c r="C4">
-        <v>0.900355871886121</v>
+        <v>0.2473309608540925</v>
       </c>
       <c r="D4">
-        <v>0.900355871886121</v>
+        <v>0.2473309608540925</v>
       </c>
       <c r="E4">
-        <v>0.900355871886121</v>
+        <v>0.2473309608540925</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5067216981132076</v>
+        <v>0.5310421286031042</v>
       </c>
       <c r="C5">
-        <v>0.5076243980738363</v>
+        <v>0.6039325842696629</v>
       </c>
       <c r="D5">
-        <v>0.5070175438596491</v>
+        <v>0.2305481380783609</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9066793124286578</v>
+        <v>0.9532711017825157</v>
       </c>
       <c r="C6">
-        <v>0.900355871886121</v>
+        <v>0.2473309608540925</v>
       </c>
       <c r="D6">
-        <v>0.903490041830555</v>
+        <v>0.3328626962051102</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>504</v>
+        <v>111</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
